--- a/Fugu-drive/2 - PCB Files/Parts List.xlsx
+++ b/Fugu-drive/2 - PCB Files/Parts List.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_8E8C1B05D3DEF36C2BB3DEBCA10A6A6F06BD3D3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE82D50-A096-48D4-BCDE-694C53B410F5}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-5355" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26400" yWindow="-1320" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPPT Main Board" sheetId="1" r:id="rId1"/>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
